--- a/stage_1/Sorting_Filtering/Sorting_filtering.xlsx
+++ b/stage_1/Sorting_Filtering/Sorting_filtering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Sorting_Filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC64FBC-CAE8-46F5-B888-1B48699EF54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9844DE25-3E72-49D3-A7C8-3B685F220386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$D$1:$D$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -411,7 +411,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,7 +611,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
     <sortCondition descending="1" ref="E1:E11"/>
   </sortState>
